--- a/Data/Encuesta.xlsx
+++ b/Data/Encuesta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60C2C3-B960-4EF0-AD43-B9505F123313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84441848-0907-4AB6-8355-E244024A48B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
         <v>214</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2788,7 +2788,7 @@
         <v>197</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
         <v>31</v>
